--- a/wwwroot/reports/report.xlsx
+++ b/wwwroot/reports/report.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Список коллекций</t>
   </si>
@@ -39,10 +39,7 @@
     <t>games</t>
   </si>
   <si>
-    <t>qwe</t>
-  </si>
-  <si>
-    <t>asdf</t>
+    <t/>
   </si>
 </sst>
 </file>
@@ -374,7 +371,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C1"/>
@@ -422,7 +419,18 @@
         <v>2</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>3</v>
+      </c>
+      <c r="B5" s="0">
+        <v>3</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
